--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H2">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J2">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>413.998506941068</v>
+        <v>151.6646485016273</v>
       </c>
       <c r="R2">
-        <v>3725.986562469612</v>
+        <v>1364.981836514646</v>
       </c>
       <c r="S2">
-        <v>0.01936628860552795</v>
+        <v>0.00813663210597807</v>
       </c>
       <c r="T2">
-        <v>0.01936628860552795</v>
+        <v>0.008136632105978068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H3">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J3">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
-        <v>3372.019637957373</v>
+        <v>2299.142718264466</v>
       </c>
       <c r="R3">
-        <v>30348.17674161635</v>
+        <v>20692.2844643802</v>
       </c>
       <c r="S3">
-        <v>0.1577385048431737</v>
+        <v>0.1233463344456017</v>
       </c>
       <c r="T3">
-        <v>0.1577385048431737</v>
+        <v>0.1233463344456017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.9646796666667</v>
+        <v>91.34108066666666</v>
       </c>
       <c r="H4">
-        <v>401.894039</v>
+        <v>274.023242</v>
       </c>
       <c r="I4">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302001</v>
       </c>
       <c r="J4">
-        <v>0.2795129415517745</v>
+        <v>0.2190334467302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>2189.207301246668</v>
+        <v>1631.917558701397</v>
       </c>
       <c r="R4">
-        <v>19702.86571122001</v>
+        <v>14687.25802831257</v>
       </c>
       <c r="S4">
-        <v>0.1024081481030728</v>
+        <v>0.08755048017862029</v>
       </c>
       <c r="T4">
-        <v>0.1024081481030729</v>
+        <v>0.08755048017862027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H5">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I5">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J5">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N5">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q5">
-        <v>854.2821153843355</v>
+        <v>458.9982892935322</v>
       </c>
       <c r="R5">
-        <v>7688.539038459019</v>
+        <v>4130.98460364179</v>
       </c>
       <c r="S5">
-        <v>0.0399621586061155</v>
+        <v>0.02462472470777982</v>
       </c>
       <c r="T5">
-        <v>0.03996215860611549</v>
+        <v>0.02462472470777982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H6">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I6">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J6">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P6">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q6">
-        <v>6958.131541865203</v>
+        <v>6958.131541865199</v>
       </c>
       <c r="R6">
-        <v>62623.18387678682</v>
+        <v>62623.1838767868</v>
       </c>
       <c r="S6">
-        <v>0.3254919554919326</v>
+        <v>0.3732956694951335</v>
       </c>
       <c r="T6">
-        <v>0.3254919554919326</v>
+        <v>0.3732956694951336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>276.4348856666667</v>
+        <v>276.4348856666666</v>
       </c>
       <c r="H7">
-        <v>829.3046570000001</v>
+        <v>829.3046569999999</v>
       </c>
       <c r="I7">
-        <v>0.5767723868147631</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="J7">
-        <v>0.5767723868147629</v>
+        <v>0.6628833966285105</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N7">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q7">
-        <v>4517.409152371787</v>
+        <v>4938.839572123371</v>
       </c>
       <c r="R7">
-        <v>40656.68237134608</v>
+        <v>44449.55614911034</v>
       </c>
       <c r="S7">
-        <v>0.2113182727167149</v>
+        <v>0.2649630024255971</v>
       </c>
       <c r="T7">
-        <v>0.2113182727167149</v>
+        <v>0.2649630024255971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H8">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I8">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J8">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N8">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O8">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P8">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q8">
-        <v>212.8619131245432</v>
+        <v>81.76395300953132</v>
       </c>
       <c r="R8">
-        <v>1915.757218120889</v>
+        <v>735.8755770857819</v>
       </c>
       <c r="S8">
-        <v>0.009957391569244306</v>
+        <v>0.004386541041315218</v>
       </c>
       <c r="T8">
-        <v>0.009957391569244306</v>
+        <v>0.004386541041315217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H9">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I9">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J9">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O9">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P9">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q9">
-        <v>1733.761207335247</v>
+        <v>1239.491200062781</v>
       </c>
       <c r="R9">
-        <v>15603.85086601723</v>
+        <v>11155.42080056503</v>
       </c>
       <c r="S9">
-        <v>0.08110299759873901</v>
+        <v>0.0664972621711506</v>
       </c>
       <c r="T9">
-        <v>0.08110299759873903</v>
+        <v>0.0664972621711506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.87942233333334</v>
+        <v>49.24290466666667</v>
       </c>
       <c r="H10">
-        <v>206.638267</v>
+        <v>147.728714</v>
       </c>
       <c r="I10">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="J10">
-        <v>0.1437146716334625</v>
+        <v>0.1180831566412894</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N10">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O10">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P10">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q10">
-        <v>1125.605156918882</v>
+        <v>879.7833371410768</v>
       </c>
       <c r="R10">
-        <v>10130.44641226994</v>
+        <v>7918.05003426969</v>
       </c>
       <c r="S10">
-        <v>0.0526542824654792</v>
+        <v>0.04719935342882363</v>
       </c>
       <c r="T10">
-        <v>0.05265428246547921</v>
+        <v>0.04719935342882361</v>
       </c>
     </row>
   </sheetData>
